--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
@@ -1601,16 +1601,16 @@
         <v>11</v>
       </c>
       <c r="E15" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F15" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -1656,13 +1656,13 @@
         <v>35</v>
       </c>
       <c r="F17" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1679,16 +1679,16 @@
         <v>11</v>
       </c>
       <c r="E18" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1783,7 +1783,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
@@ -2173,7 +2173,7 @@
         <v>11</v>
       </c>
       <c r="E37" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" s="2">
         <v>2</v>
@@ -2199,7 +2199,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F38" s="2">
         <v>4</v>
@@ -2225,7 +2225,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" s="2">
         <v>2</v>
@@ -2303,7 +2303,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F42" s="2">
         <v>2</v>
@@ -2355,7 +2355,7 @@
         <v>11</v>
       </c>
       <c r="E44" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" s="2">
         <v>3</v>
@@ -2407,7 +2407,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -2433,16 +2433,16 @@
         <v>11</v>
       </c>
       <c r="E47" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F47" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2485,7 +2485,7 @@
         <v>11</v>
       </c>
       <c r="E49" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2">
         <v>7</v>
@@ -2641,16 +2641,16 @@
         <v>11</v>
       </c>
       <c r="E55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="2">
         <v>0</v>
       </c>
       <c r="H55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2693,7 +2693,7 @@
         <v>11</v>
       </c>
       <c r="E57" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
@@ -3031,7 +3031,7 @@
         <v>11</v>
       </c>
       <c r="E70" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F70" s="2">
         <v>3</v>
@@ -3187,7 +3187,7 @@
         <v>11</v>
       </c>
       <c r="E76" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F76" s="2">
         <v>5</v>
@@ -3213,7 +3213,7 @@
         <v>11</v>
       </c>
       <c r="E77" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F77" s="2">
         <v>2</v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
@@ -1653,7 +1653,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2">
         <v>13</v>
@@ -1679,7 +1679,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2">
         <v>9</v>
@@ -2199,7 +2199,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F38" s="2">
         <v>4</v>
@@ -2407,7 +2407,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>11</v>
       </c>
       <c r="E48" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
         <v>11</v>
       </c>
       <c r="E53" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>11</v>
       </c>
       <c r="E57" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F68" s="2">
         <v>2</v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
@@ -1393,7 +1393,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -1601,16 +1601,16 @@
         <v>11</v>
       </c>
       <c r="E15" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F15" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2">
         <v>13</v>
@@ -1679,7 +1679,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2">
         <v>9</v>
@@ -2199,7 +2199,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F38" s="2">
         <v>4</v>
@@ -2251,7 +2251,7 @@
         <v>11</v>
       </c>
       <c r="E40" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -2407,7 +2407,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>11</v>
       </c>
       <c r="E49" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F49" s="2">
         <v>7</v>
@@ -2745,16 +2745,16 @@
         <v>11</v>
       </c>
       <c r="E59" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="2">
         <v>0</v>
       </c>
       <c r="H59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F64" s="2">
         <v>6</v>
@@ -3005,16 +3005,16 @@
         <v>11</v>
       </c>
       <c r="E69" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F69" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
       </c>
       <c r="H69" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3135,7 +3135,7 @@
         <v>11</v>
       </c>
       <c r="E74" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F74" s="2">
         <v>2</v>
@@ -3213,7 +3213,7 @@
         <v>11</v>
       </c>
       <c r="E77" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F77" s="2">
         <v>2</v>
@@ -3265,7 +3265,7 @@
         <v>11</v>
       </c>
       <c r="E79" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F79" s="2">
         <v>2</v>
@@ -3291,7 +3291,7 @@
         <v>11</v>
       </c>
       <c r="E80" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F80" s="2">
         <v>3</v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
@@ -73,9 +73,6 @@
     <t>Educação Física - Licenciatura - Campus Bambuí - Turno Noturno - Notas do Enem</t>
   </si>
   <si>
-    <t>Educação Física - Licenciatura Campos Bambuí - Turno Noturno - Redação Online</t>
-  </si>
-  <si>
     <t>Engenharia da Computação - Bacharelado - Campus Bambuí - Turno Manhã e Tarde - Notas do Enem</t>
   </si>
   <si>
@@ -359,6 +356,9 @@
   </si>
   <si>
     <t>Engenharia de Controle e Automação - Bacharelado - Campus Ibirité - Turno Manhã e Tarde - Notas do Enem</t>
+  </si>
+  <si>
+    <t>Educação Física - Licenciatura - Campus Bambuí - Turno Noturno - Redação Online</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1410,7 +1412,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1436,7 +1438,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -1462,7 +1464,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -1488,7 +1490,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -1514,7 +1516,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -1540,7 +1542,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -1566,7 +1568,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -1592,7 +1594,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -1618,7 +1620,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -1644,10 +1646,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -1670,10 +1672,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -1696,10 +1698,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -1722,10 +1724,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
@@ -1748,10 +1750,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -1774,10 +1776,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>11</v>
@@ -1800,10 +1802,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>11</v>
@@ -1826,10 +1828,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
@@ -1852,10 +1854,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -1878,10 +1880,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
@@ -1904,10 +1906,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>11</v>
@@ -1930,10 +1932,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
@@ -1956,10 +1958,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
@@ -1982,10 +1984,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
@@ -2008,10 +2010,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>11</v>
@@ -2034,10 +2036,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>11</v>
@@ -2060,10 +2062,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
@@ -2086,10 +2088,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
@@ -2112,10 +2114,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -2138,10 +2140,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
@@ -2164,7 +2166,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>13</v>
@@ -2190,10 +2192,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>11</v>
@@ -2216,10 +2218,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>11</v>
@@ -2242,10 +2244,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>11</v>
@@ -2268,10 +2270,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>11</v>
@@ -2294,10 +2296,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>11</v>
@@ -2320,10 +2322,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>11</v>
@@ -2346,10 +2348,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>11</v>
@@ -2372,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>11</v>
@@ -2398,10 +2400,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>11</v>
@@ -2424,10 +2426,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>11</v>
@@ -2450,10 +2452,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>11</v>
@@ -2476,10 +2478,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>11</v>
@@ -2502,10 +2504,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
@@ -2528,10 +2530,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>11</v>
@@ -2554,10 +2556,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>11</v>
@@ -2580,10 +2582,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>11</v>
@@ -2606,10 +2608,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>11</v>
@@ -2632,10 +2634,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>11</v>
@@ -2658,10 +2660,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>11</v>
@@ -2684,10 +2686,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>11</v>
@@ -2710,10 +2712,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>11</v>
@@ -2736,10 +2738,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>11</v>
@@ -2762,10 +2764,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>11</v>
@@ -2788,10 +2790,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>11</v>
@@ -2814,10 +2816,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>11</v>
@@ -2840,10 +2842,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>11</v>
@@ -2866,10 +2868,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>11</v>
@@ -2892,10 +2894,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>11</v>
@@ -2918,10 +2920,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>11</v>
@@ -2944,10 +2946,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>11</v>
@@ -2970,10 +2972,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>11</v>
@@ -2996,10 +2998,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>11</v>
@@ -3022,10 +3024,10 @@
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>11</v>
@@ -3048,10 +3050,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>11</v>
@@ -3074,10 +3076,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>11</v>
@@ -3100,10 +3102,10 @@
         <v>8</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>11</v>
@@ -3126,10 +3128,10 @@
         <v>8</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>11</v>
@@ -3152,10 +3154,10 @@
         <v>8</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>11</v>
@@ -3178,10 +3180,10 @@
         <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>11</v>
@@ -3204,10 +3206,10 @@
         <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>11</v>
@@ -3230,7 +3232,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
@@ -3256,7 +3258,7 @@
         <v>8</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
@@ -3282,7 +3284,7 @@
         <v>8</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
@@ -3308,7 +3310,7 @@
         <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
@@ -3334,7 +3336,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
@@ -3360,7 +3362,7 @@
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
@@ -3386,7 +3388,7 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
@@ -3412,7 +3414,7 @@
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
@@ -3438,7 +3440,7 @@
         <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
@@ -3464,7 +3466,7 @@
         <v>8</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
@@ -3490,7 +3492,7 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
@@ -3516,10 +3518,10 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>11</v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27495" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22695" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="2025-1_GestaoResultado_ResumoIn" sheetId="1" r:id="rId1"/>
@@ -73,6 +73,9 @@
     <t>Educação Física - Licenciatura - Campus Bambuí - Turno Noturno - Notas do Enem</t>
   </si>
   <si>
+    <t>Educação Física - Licenciatura Campos Bambuí - Turno Noturno - Redação Online</t>
+  </si>
+  <si>
     <t>Engenharia da Computação - Bacharelado - Campus Bambuí - Turno Manhã e Tarde - Notas do Enem</t>
   </si>
   <si>
@@ -356,9 +359,6 @@
   </si>
   <si>
     <t>Engenharia de Controle e Automação - Bacharelado - Campus Ibirité - Turno Manhã e Tarde - Notas do Enem</t>
-  </si>
-  <si>
-    <t>Educação Física - Licenciatura - Campus Bambuí - Turno Noturno - Redação Online</t>
   </si>
 </sst>
 </file>
@@ -1210,9 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1265,16 +1263,16 @@
         <v>11</v>
       </c>
       <c r="E2" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1412,7 +1410,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1438,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -1464,7 +1462,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -1490,7 +1488,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -1516,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -1542,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -1568,7 +1566,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -1594,7 +1592,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -1603,16 +1601,16 @@
         <v>11</v>
       </c>
       <c r="E15" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1620,7 +1618,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -1646,25 +1644,25 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1672,25 +1670,25 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1698,10 +1696,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -1724,10 +1722,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
@@ -1750,10 +1748,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -1776,10 +1774,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>11</v>
@@ -1788,13 +1786,13 @@
         <v>3</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1802,10 +1800,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>11</v>
@@ -1828,10 +1826,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
@@ -1840,13 +1838,13 @@
         <v>9</v>
       </c>
       <c r="F24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1854,10 +1852,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -1880,10 +1878,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
@@ -1892,13 +1890,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1906,10 +1904,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>11</v>
@@ -1918,13 +1916,13 @@
         <v>3</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1932,16 +1930,16 @@
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="2">
         <v>2</v>
@@ -1958,10 +1956,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
@@ -1984,10 +1982,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
@@ -2010,10 +2008,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>11</v>
@@ -2036,10 +2034,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>11</v>
@@ -2062,25 +2060,25 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2088,10 +2086,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
@@ -2114,10 +2112,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -2140,25 +2138,25 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F36" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2166,7 +2164,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>13</v>
@@ -2192,10 +2190,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>11</v>
@@ -2218,25 +2216,25 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2244,10 +2242,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>11</v>
@@ -2270,16 +2268,16 @@
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" s="2">
         <v>3</v>
@@ -2296,16 +2294,16 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" s="2">
         <v>2</v>
@@ -2322,10 +2320,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>11</v>
@@ -2348,10 +2346,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>11</v>
@@ -2374,25 +2372,25 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F45" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
       </c>
       <c r="H45" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2400,10 +2398,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>11</v>
@@ -2426,25 +2424,25 @@
         <v>8</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F47" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2452,10 +2450,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>11</v>
@@ -2478,25 +2476,25 @@
         <v>8</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F49" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>
       </c>
       <c r="H49" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2504,16 +2502,16 @@
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50" s="2">
         <v>0</v>
@@ -2530,10 +2528,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>11</v>
@@ -2556,10 +2554,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>11</v>
@@ -2582,10 +2580,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>11</v>
@@ -2608,10 +2606,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>11</v>
@@ -2634,10 +2632,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>11</v>
@@ -2660,10 +2658,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>11</v>
@@ -2686,10 +2684,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>11</v>
@@ -2712,10 +2710,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>11</v>
@@ -2738,10 +2736,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>11</v>
@@ -2764,10 +2762,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>11</v>
@@ -2790,10 +2788,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>11</v>
@@ -2816,10 +2814,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>11</v>
@@ -2842,10 +2840,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>11</v>
@@ -2868,25 +2866,25 @@
         <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F64" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G64" s="2">
         <v>0</v>
       </c>
       <c r="H64" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2894,11 +2892,11 @@
         <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D65" s="2" t="s">
         <v>11</v>
       </c>
@@ -2906,13 +2904,13 @@
         <v>8</v>
       </c>
       <c r="F65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="2">
         <v>0</v>
       </c>
       <c r="H65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2920,25 +2918,25 @@
         <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F66" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
       </c>
       <c r="H66" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2946,25 +2944,25 @@
         <v>8</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F67" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G67" s="2">
         <v>0</v>
       </c>
       <c r="H67" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2972,10 +2970,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>11</v>
@@ -2998,10 +2996,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>11</v>
@@ -3024,16 +3022,16 @@
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F70" s="2">
         <v>3</v>
@@ -3050,25 +3048,25 @@
         <v>8</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F71" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G71" s="2">
         <v>0</v>
       </c>
       <c r="H71" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3076,10 +3074,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>11</v>
@@ -3088,13 +3086,13 @@
         <v>12</v>
       </c>
       <c r="F72" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G72" s="2">
         <v>0</v>
       </c>
       <c r="H72" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3102,10 +3100,10 @@
         <v>8</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>11</v>
@@ -3128,25 +3126,25 @@
         <v>8</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F74" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" s="2">
         <v>0</v>
       </c>
       <c r="H74" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3154,16 +3152,16 @@
         <v>8</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75" s="2">
         <v>2</v>
@@ -3180,25 +3178,25 @@
         <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E76" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F76" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G76" s="2">
         <v>0</v>
       </c>
       <c r="H76" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3206,16 +3204,16 @@
         <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E77" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F77" s="2">
         <v>2</v>
@@ -3232,7 +3230,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
@@ -3258,7 +3256,7 @@
         <v>8</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
@@ -3284,7 +3282,7 @@
         <v>8</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
@@ -3310,7 +3308,7 @@
         <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
@@ -3319,16 +3317,16 @@
         <v>11</v>
       </c>
       <c r="E81" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="2">
         <v>0</v>
       </c>
       <c r="H81" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3336,7 +3334,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
@@ -3362,7 +3360,7 @@
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
@@ -3388,7 +3386,7 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
@@ -3414,7 +3412,7 @@
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
@@ -3440,7 +3438,7 @@
         <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
@@ -3466,7 +3464,7 @@
         <v>8</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
@@ -3492,7 +3490,7 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
@@ -3518,16 +3516,16 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F89" s="2">
         <v>3</v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
@@ -73,7 +73,7 @@
     <t>Educação Física - Licenciatura - Campus Bambuí - Turno Noturno - Notas do Enem</t>
   </si>
   <si>
-    <t>Educação Física - Licenciatura Campos Bambuí - Turno Noturno - Redação Online</t>
+    <t>Educação Física - Licenciatura - Campus Bambuí - Turno Noturno - Redação Online</t>
   </si>
   <si>
     <t>Engenharia da Computação - Bacharelado - Campus Bambuí - Turno Manhã e Tarde - Notas do Enem</t>
@@ -1210,7 +1210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1679,7 +1681,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2">
         <v>10</v>
@@ -1783,7 +1785,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -2277,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="E41" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" s="2">
         <v>3</v>
@@ -2407,7 +2409,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -2667,7 +2669,7 @@
         <v>11</v>
       </c>
       <c r="E56" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
@@ -2771,7 +2773,7 @@
         <v>11</v>
       </c>
       <c r="E60" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F60" s="2">
         <v>0</v>
@@ -3239,7 +3241,7 @@
         <v>11</v>
       </c>
       <c r="E78" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F78" s="2">
         <v>3</v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
@@ -1210,9 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1603,16 +1601,16 @@
         <v>11</v>
       </c>
       <c r="E15" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2149,7 +2147,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F36" s="2">
         <v>9</v>
@@ -2175,16 +2173,16 @@
         <v>11</v>
       </c>
       <c r="E37" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2305,7 +2303,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F42" s="2">
         <v>2</v>
@@ -2435,7 +2433,7 @@
         <v>11</v>
       </c>
       <c r="E47" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F47" s="2">
         <v>11</v>
@@ -2851,16 +2849,16 @@
         <v>11</v>
       </c>
       <c r="E63" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="2">
         <v>0</v>
       </c>
       <c r="H63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2903,7 +2901,7 @@
         <v>11</v>
       </c>
       <c r="E65" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F65" s="2">
         <v>2</v>
@@ -3244,13 +3242,13 @@
         <v>9</v>
       </c>
       <c r="F78" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G78" s="2">
         <v>0</v>
       </c>
       <c r="H78" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
@@ -1653,7 +1653,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2">
         <v>15</v>
@@ -1861,7 +1861,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -2043,16 +2043,16 @@
         <v>11</v>
       </c>
       <c r="E32" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2147,7 +2147,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2">
         <v>9</v>
@@ -2436,13 +2436,13 @@
         <v>30</v>
       </c>
       <c r="F47" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3239,7 +3239,7 @@
         <v>11</v>
       </c>
       <c r="E78" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F78" s="2">
         <v>4</v>
@@ -3291,7 +3291,7 @@
         <v>11</v>
       </c>
       <c r="E80" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F80" s="2">
         <v>3</v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>9</x:v>
@@ -902,7 +902,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>0</x:v>
@@ -954,7 +954,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>2</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>31</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>17</x:v>
@@ -1188,16 +1188,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1396,7 +1396,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>6</x:v>
@@ -1552,7 +1552,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>3</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>5</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1734,7 +1734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>4</x:v>
@@ -1760,7 +1760,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>0</x:v>
@@ -1864,16 +1864,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1942,16 +1942,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -2257,13 +2257,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:8">
@@ -2306,7 +2306,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>2</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>1</x:v>
@@ -2384,7 +2384,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>8</x:v>
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>3</x:v>
@@ -2436,16 +2436,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>6</x:v>
@@ -2696,16 +2696,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:8">
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>3</x:v>
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>0</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>9</x:v>
@@ -798,7 +798,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>2</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>31</x:v>
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>17</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>12</x:v>
@@ -1760,7 +1760,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>0</x:v>
@@ -1812,7 +1812,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>2</x:v>
@@ -1864,16 +1864,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -2205,13 +2205,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:8">
@@ -2384,16 +2384,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>3</x:v>
@@ -2436,16 +2436,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8">
@@ -2722,7 +2722,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>3</x:v>
@@ -2800,16 +2800,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:8">
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>0</x:v>
@@ -3037,13 +3037,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
@@ -772,7 +772,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>9</x:v>
@@ -798,16 +798,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>11</x:v>
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1659,13 +1659,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1682,16 +1682,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1763,13 +1763,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1890,16 +1890,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8">
@@ -2205,13 +2205,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:8">
@@ -2231,13 +2231,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:8">
@@ -2462,7 +2462,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>6</x:v>
@@ -2488,7 +2488,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
         <x:v>2</x:v>
@@ -2566,16 +2566,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2592,7 +2592,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
         <x:v>6</x:v>
@@ -2644,7 +2644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>4</x:v>
@@ -2907,13 +2907,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G84" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H84" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:8">
@@ -3011,13 +3011,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">
@@ -3034,7 +3034,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>3</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
@@ -798,16 +798,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>11</x:v>
@@ -1214,16 +1214,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1344,7 +1344,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>3</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>5</x:v>
@@ -1604,7 +1604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>1</x:v>
@@ -1656,16 +1656,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>5</x:v>
@@ -1760,16 +1760,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1786,7 +1786,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>3</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>0</x:v>
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2150,7 +2150,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
         <x:v>1</x:v>
@@ -2280,7 +2280,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
         <x:v>1</x:v>
@@ -2436,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>8</x:v>
@@ -2540,7 +2540,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>3</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>4</x:v>
@@ -2696,7 +2696,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
         <x:v>7</x:v>
@@ -3008,7 +3008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>1</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
@@ -772,16 +772,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -801,13 +801,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -902,16 +902,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1139,13 +1139,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>17</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>11</x:v>
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>16</x:v>
@@ -1344,16 +1344,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1552,7 +1552,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>3</x:v>
@@ -1581,13 +1581,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1708,7 +1708,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>5</x:v>
@@ -1734,7 +1734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>4</x:v>
@@ -1760,7 +1760,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>2</x:v>
@@ -1786,16 +1786,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1815,13 +1815,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1841,13 +1841,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -1864,16 +1864,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1945,13 +1945,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2280,7 +2280,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
         <x:v>1</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>2</x:v>
@@ -2413,13 +2413,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8">
@@ -2436,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>8</x:v>
@@ -2540,16 +2540,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8">
@@ -2569,13 +2569,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8">
@@ -2618,16 +2618,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8">
@@ -2670,7 +2670,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
         <x:v>2</x:v>
@@ -2722,16 +2722,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:8">
@@ -2800,16 +2800,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:8">
@@ -2826,7 +2826,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
         <x:v>1</x:v>
@@ -2878,7 +2878,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
         <x:v>0</x:v>
@@ -3008,16 +3008,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8">
@@ -3037,13 +3037,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_GRAD.xlsx
@@ -824,7 +824,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>0</x:v>
@@ -1110,16 +1110,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1162,7 +1162,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>17</x:v>
@@ -1188,7 +1188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>11</x:v>
@@ -1214,7 +1214,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>16</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>6</x:v>
@@ -1786,16 +1786,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1916,16 +1916,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1968,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1994,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -2384,16 +2384,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8">
@@ -2410,7 +2410,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>4</x:v>
@@ -2436,7 +2436,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>8</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>5</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>3</x:v>
@@ -2800,7 +2800,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
         <x:v>5</x:v>
